--- a/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
+++ b/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>Comment</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Connecteurs 2pins</t>
+  </si>
+  <si>
+    <t>TSSOP8</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1858,7 +1861,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1866,10 +1869,18 @@
       <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="E41"/>
+      <c r="E41">
+        <v>1755119</v>
+      </c>
+      <c r="F41">
+        <v>2.86</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
       <c r="H41">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2067,7 +2078,7 @@
       </c>
       <c r="H49" s="3">
         <f>SUM(H11:H48)</f>
-        <v>136.185</v>
+        <v>139.04500000000002</v>
       </c>
     </row>
     <row r="69" spans="8:8">

--- a/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
+++ b/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
@@ -72,9 +72,6 @@
     <t>oufffteam@gmail.com</t>
   </si>
   <si>
-    <t>Rev. A</t>
-  </si>
-  <si>
     <t>Prix (€ - HT)</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>U301</t>
   </si>
   <si>
-    <t>BOM - Carte Ocore</t>
-  </si>
-  <si>
     <t>Date: 30/08/09</t>
   </si>
   <si>
@@ -367,6 +361,12 @@
   </si>
   <si>
     <t>TSSOP8</t>
+  </si>
+  <si>
+    <t>BOM - Balise Rx</t>
+  </si>
+  <si>
+    <t>Rev. B</t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -988,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -996,16 +996,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>4913073</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>1612504</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>1759037</v>
@@ -1086,16 +1086,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1828828</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>1414603</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>1759022</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>1458900</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1414601</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>1572625</v>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>9731164</v>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>1617774</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>1685063</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="E23">
         <v>8647801</v>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1022255</v>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>1299976</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26"/>
       <c r="H26">
@@ -1468,16 +1468,16 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="E27">
         <v>9103414</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <v>1469751</v>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>1469781</v>
@@ -1558,16 +1558,16 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>1469834</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>1469807</v>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>1469831</v>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>1469749</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34">
         <v>1469801</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>9331522</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>1469649</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>9238816</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>9331476</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>1576883</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>9758569</v>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <v>1755119</v>
@@ -1885,16 +1885,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <v>1337913</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>1605829</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>1432108</v>
@@ -1966,16 +1966,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45">
         <v>1236352</v>
@@ -1993,16 +1993,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>1675293</v>
@@ -2020,16 +2020,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>1103058</v>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48">
         <v>1778227</v>

--- a/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
+++ b/trunk/Elec/2011/Balises IR/schematic/Rx_BOM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Ocore" localSheetId="0">Feuil1!$A$57:$G$101</definedName>
+    <definedName name="Ocore" localSheetId="0">Feuil1!$A$58:$G$102</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>Comment</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>Rev. B</t>
+  </si>
+  <si>
+    <t>SMM-110-02-S-S</t>
+  </si>
+  <si>
+    <t>Xbee/2</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,12 +513,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -614,17 +637,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H48" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" dataCellStyle="Normal">
-  <autoFilter ref="A10:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H49" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="A10:H49"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Comment" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Pattern" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Quantity" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Components" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Components" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="5" name="Ref farnell" dataCellStyle="Normal"/>
     <tableColumn id="6" name="PU (HT)" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Minimum de commande" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Prix (€ - HT)" dataCellStyle="Normal">
+    <tableColumn id="8" name="Prix (€ - HT)" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -917,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:L69"/>
+  <dimension ref="A4:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -994,7 +1017,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1004,7 +1027,7 @@
       <c r="C11">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E11">
@@ -1024,7 +1047,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1057,7 @@
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E12">
@@ -1054,7 +1077,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1087,7 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E13">
@@ -1094,7 +1117,7 @@
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E14">
@@ -1124,7 +1147,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E15">
@@ -1154,7 +1177,7 @@
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E16">
@@ -1184,7 +1207,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E17">
@@ -1214,7 +1237,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E18">
@@ -1234,7 +1257,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1267,7 @@
       <c r="C19">
         <v>32</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E19">
@@ -1274,7 +1297,7 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E20">
@@ -1304,7 +1327,7 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E21">
@@ -1334,7 +1357,7 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E22">
@@ -1364,7 +1387,7 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E23">
@@ -1394,7 +1417,7 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E24">
@@ -1424,7 +1447,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E25">
@@ -1454,7 +1477,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="19" t="s">
         <v>63</v>
       </c>
       <c r="E26"/>
@@ -1476,7 +1499,7 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E27">
@@ -1506,7 +1529,7 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E28">
@@ -1536,7 +1559,7 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E29">
@@ -1566,7 +1589,7 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E30">
@@ -1596,7 +1619,7 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="18" t="s">
         <v>75</v>
       </c>
       <c r="E31">
@@ -1623,7 +1646,7 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="18" t="s">
         <v>73</v>
       </c>
       <c r="E32">
@@ -1640,7 +1663,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
@@ -1650,7 +1673,7 @@
       <c r="C33">
         <v>13</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E33">
@@ -1677,7 +1700,7 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E34">
@@ -1704,7 +1727,7 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E35">
@@ -1731,7 +1754,7 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E36">
@@ -1758,7 +1781,7 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E37">
@@ -1785,7 +1808,7 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E38">
@@ -1812,7 +1835,7 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E39">
@@ -1839,7 +1862,7 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="18" t="s">
         <v>90</v>
       </c>
       <c r="E40">
@@ -1866,7 +1889,7 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E41">
@@ -1885,204 +1908,231 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>1668127</v>
+      </c>
+      <c r="F42" s="16">
+        <v>2.42</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16">
+        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>1337913</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>24.9</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>24.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43">
-        <v>1605829</v>
-      </c>
-      <c r="F43">
-        <v>6.26</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>6.26</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>20</v>
+      <c r="D44" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>1432108</v>
+        <v>1605829</v>
       </c>
       <c r="F44">
-        <v>4.4800000000000004</v>
+        <v>6.26</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>4.4800000000000004</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>1236352</v>
+        <v>1432108</v>
       </c>
       <c r="F45">
-        <v>0.66</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>2.64</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E46">
-        <v>1675293</v>
+        <v>1236352</v>
       </c>
       <c r="F46">
-        <v>2.34</v>
+        <v>0.66</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>19</v>
+      <c r="D47" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>1103058</v>
+        <v>1675293</v>
       </c>
       <c r="F47">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>1103058</v>
+      </c>
+      <c r="F48">
+        <v>2.94</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>1778227</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>0.53</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>0.53</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
-      <c r="G49" s="1" t="s">
+    <row r="50" spans="1:8">
+      <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="3">
-        <f>SUM(H11:H48)</f>
-        <v>139.04500000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8">
-      <c r="H69" s="6"/>
+      <c r="H50" s="3">
+        <f>SUM(H11:H49)</f>
+        <v>143.88499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
